--- a/auto/new_data/5_經濟數據_turkey.xlsx
+++ b/auto/new_data/5_經濟數據_turkey.xlsx
@@ -488,7 +488,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>34.31</t>
+          <t>34.32</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -518,12 +518,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>8951</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>8864</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9007</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -535,7 +535,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Nov/2</t>
         </is>
       </c>
     </row>
@@ -960,12 +960,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>45.8</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>44.3</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>47.8</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -977,7 +977,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/2</t>
         </is>
       </c>
     </row>
@@ -4026,12 +4026,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>45.8</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>44.3</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>47.8</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
@@ -4043,7 +4043,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/2</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/5_經濟數據_turkey.xlsx
+++ b/auto/new_data/5_經濟數據_turkey.xlsx
@@ -488,12 +488,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>34.32</t>
+          <t>34.36</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>34.37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -501,7 +501,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Nov/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -518,12 +518,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>8951</t>
+          <t>9185</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8864</t>
+          <t>8946</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -535,7 +535,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Nov/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -569,7 +569,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -603,7 +603,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -637,7 +637,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -654,12 +654,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>48.58</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>49.38</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>51.97</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -671,7 +671,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -688,12 +688,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>2.97</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.47</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -705,7 +705,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -756,12 +756,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>-5745</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>-5129</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>-5261</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -773,7 +773,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -875,7 +875,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -943,7 +943,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -977,7 +977,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -1385,7 +1385,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/22</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -2006,12 +2006,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>48.58</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>49.38</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>51.97</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2040,12 +2040,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>2.97</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>2.47</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2074,12 +2074,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>2599</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>2526</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>2453</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2108,12 +2108,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>2063</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>2007</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>1938</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2142,12 +2142,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>47.75</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>49.1</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>51.56</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -2159,7 +2159,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -2210,12 +2210,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>3707</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>3660</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>3611</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -2227,7 +2227,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2244,12 +2244,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>32.24</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>33.09</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>35.75</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -2346,12 +2346,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>45.28</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>43.72</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>44.88</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2448,12 +2448,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>1.37</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>1.68</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -2465,7 +2465,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2482,12 +2482,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>2814</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>2734</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>2633</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2516,12 +2516,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>2728</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>2743</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>2678</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2669,7 +2669,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2703,7 +2703,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2737,7 +2737,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -2754,12 +2754,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>93791</t>
+          <t>93010</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>93643</t>
+          <t>93510</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -2839,7 +2839,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2907,7 +2907,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2941,7 +2941,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/22</t>
         </is>
       </c>
     </row>
@@ -3026,12 +3026,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>-5745</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>-5129</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>-5261</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3077,7 +3077,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -3128,12 +3128,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>23620</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>21987</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>21477</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3162,12 +3162,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>29364</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>27116</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>26738</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Mar/2</t>
+          <t>Mar/24</t>
         </is>
       </c>
     </row>
@@ -3247,7 +3247,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -3383,7 +3383,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3413,7 +3413,7 @@
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3511,7 +3511,7 @@
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -3545,7 +3545,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -3579,7 +3579,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -3613,7 +3613,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -3647,7 +3647,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -3749,7 +3749,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3783,7 +3783,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -3881,7 +3881,7 @@
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -3898,7 +3898,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
@@ -3907,7 +3907,7 @@
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -3941,7 +3941,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -3958,12 +3958,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>-200965</t>
+          <t>-167312</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>-194618</t>
+          <t>-201167</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
@@ -3975,7 +3975,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4009,7 +4009,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4043,7 +4043,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -4145,7 +4145,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -4179,7 +4179,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4213,7 +4213,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -4247,7 +4247,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4315,7 +4315,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4349,7 +4349,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4383,7 +4383,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -4485,7 +4485,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4519,7 +4519,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4553,7 +4553,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -4587,7 +4587,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -4655,7 +4655,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -4689,7 +4689,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -4723,7 +4723,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4753,7 +4753,7 @@
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4787,7 +4787,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Mar/2</t>
+          <t>Mar/24</t>
         </is>
       </c>
     </row>
@@ -4821,7 +4821,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4855,7 +4855,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4889,7 +4889,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -4923,7 +4923,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4957,7 +4957,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -4991,7 +4991,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -5025,7 +5025,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -5055,7 +5055,7 @@
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Mar/2</t>
+          <t>Mar/24</t>
         </is>
       </c>
     </row>
@@ -5089,7 +5089,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -5127,7 +5127,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/21</t>
         </is>
       </c>
     </row>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/21</t>
         </is>
       </c>
     </row>
@@ -5199,7 +5199,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/21</t>
         </is>
       </c>
     </row>
@@ -5237,7 +5237,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/21</t>
         </is>
       </c>
     </row>
@@ -5275,7 +5275,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Dec/1</t>
+          <t>Dec/19</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/5_經濟數據_turkey.xlsx
+++ b/auto/new_data/5_經濟數據_turkey.xlsx
@@ -488,12 +488,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>34.36</t>
+          <t>34.35</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>34.37</t>
+          <t>34.35</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -518,12 +518,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>9185</t>
+          <t>9300</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8946</t>
+          <t>9227</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -620,12 +620,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -637,7 +637,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -790,12 +790,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>2988</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>4324</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>778</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -807,7 +807,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1028,12 +1028,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1572,12 +1572,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1606,12 +1606,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>32776</t>
+          <t>32823</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>32698</t>
+          <t>32728</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1640,12 +1640,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>3055</t>
+          <t>3100</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>3144</t>
+          <t>3065</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1674,12 +1674,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>54.3</t>
+          <t>54.4</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>54.4</t>
+          <t>54.2</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1708,12 +1708,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>16.5</t>
+          <t>17.1</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>16.4</t>
+          <t>16.8</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3060,12 +3060,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>2988</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>4324</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>778</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -3077,7 +3077,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3264,12 +3264,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>-3263</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>630</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>1573</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3298,12 +3298,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>441</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>304</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3498,12 +3498,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>102</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>100</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -3511,7 +3511,7 @@
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Jul/24</t>
         </is>
       </c>
     </row>
@@ -4060,12 +4060,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>-5.3</t>
+          <t>-2.4</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-5.2</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4094,12 +4094,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>-1.6</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>0.3</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4128,12 +4128,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>-2.5</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>-5.4</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>-5</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -4145,7 +4145,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4264,12 +4264,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>121970</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>123445</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>53502</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4332,12 +4332,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>97274</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
           <t>85540</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>90134</t>
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
@@ -4349,7 +4349,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4434,12 +4434,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>-5.4</t>
+          <t>-5.3</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>-5.2</t>
         </is>
       </c>
       <c r="E119" t="inlineStr"/>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4536,12 +4536,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="E122" t="inlineStr"/>
@@ -4553,7 +4553,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4570,12 +4570,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>13.3</t>
+          <t>15.9</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>13.7</t>
         </is>
       </c>
       <c r="E123" t="inlineStr"/>
@@ -4587,7 +4587,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4838,12 +4838,12 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
+          <t>165138</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
           <t>140919</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>134155</t>
         </is>
       </c>
       <c r="E131" t="inlineStr"/>
@@ -4855,7 +4855,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4906,12 +4906,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
+          <t>107459</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
           <t>96061</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>92242</t>
         </is>
       </c>
       <c r="E133" t="inlineStr"/>
@@ -4923,7 +4923,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -5008,12 +5008,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
+          <t>57679</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
           <t>44858</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>41913</t>
         </is>
       </c>
       <c r="E136" t="inlineStr"/>
@@ -5025,7 +5025,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/5_經濟數據_turkey.xlsx
+++ b/auto/new_data/5_經濟數據_turkey.xlsx
@@ -488,12 +488,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>34.35</t>
+          <t>34.48</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>34.35</t>
+          <t>34.5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -501,7 +501,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>20/Nov/24 13:23:58</t>
         </is>
       </c>
     </row>
@@ -518,12 +518,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>9300</t>
+          <t>9233</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9227</t>
+          <t>9395</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -535,7 +535,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>20/Nov/24 13:23:58</t>
         </is>
       </c>
     </row>
@@ -2278,12 +2278,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>116</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>115</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2312,12 +2312,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>131</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>130</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2380,12 +2380,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>2.9</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>2.5</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2414,12 +2414,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>48.7</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>49.5</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>52</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2550,12 +2550,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>997</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>969</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>941</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2618,12 +2618,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>6087427998</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>6105507114</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>5981293962</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2652,12 +2652,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>16667750505</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>16566771377</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>16261729508</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -2669,7 +2669,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2686,12 +2686,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>18419896958</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>18146310778</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>17453601446</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -2703,7 +2703,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2754,12 +2754,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>92120</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>93010</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>93510</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -2856,12 +2856,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>618580257</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>614722620</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>605010614</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3230,12 +3230,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>88.26</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>88.06</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -3247,7 +3247,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3664,12 +3664,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>-186</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>-100</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>-130</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/5_經濟數據_turkey.xlsx
+++ b/auto/new_data/5_經濟數據_turkey.xlsx
@@ -488,12 +488,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>34.49</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>34.48</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>34.5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -501,7 +501,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>20/Nov/24 13:23:58</t>
+          <t>21/Nov/24 14:23:36</t>
         </is>
       </c>
     </row>
@@ -518,12 +518,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>9032</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>9233</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9395</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -535,7 +535,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>20/Nov/24 13:23:58</t>
+          <t>21/Nov/24 14:23:36</t>
         </is>
       </c>
     </row>
@@ -3766,12 +3766,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>8795700</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>8649300</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>8338800</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -3783,7 +3783,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4366,12 +4366,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>98.81</t>
+          <t>99.12</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>98.72</t>
+          <t>98.91</t>
         </is>
       </c>
       <c r="E117" t="inlineStr"/>
@@ -4383,7 +4383,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/5_經濟數據_turkey.xlsx
+++ b/auto/new_data/5_經濟數據_turkey.xlsx
@@ -488,12 +488,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>34.49</t>
+          <t>35.2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>34.48</t>
+          <t>35.19</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -501,7 +501,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>21/Nov/24 14:23:36</t>
+          <t>26/Dec/24 10:02:23</t>
         </is>
       </c>
     </row>
@@ -518,12 +518,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>9032</t>
+          <t>9916</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9233</t>
+          <t>9673</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -535,7 +535,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>21/Nov/24 14:23:36</t>
+          <t>26/Dec/24 10:02:23</t>
         </is>
       </c>
     </row>
@@ -552,12 +552,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>-0.2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>-0.2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -569,7 +569,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -586,12 +586,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -603,7 +603,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -620,12 +620,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -637,7 +637,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -654,12 +654,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>47.09</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>48.58</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>49.38</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -671,7 +671,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -688,12 +688,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>2.88</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.97</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -705,7 +705,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -756,12 +756,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-5745</t>
+          <t>-7363</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-5129</t>
+          <t>-5909</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -773,7 +773,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -790,12 +790,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>1880</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>2988</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4324</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -807,7 +807,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -926,12 +926,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>98.8</t>
+          <t>100</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -943,7 +943,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -960,12 +960,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>48.3</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>45.8</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>44.3</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -977,7 +977,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -994,12 +994,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>80.6</t>
+          <t>81.3</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>78.2</t>
+          <t>79.8</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -1028,12 +1028,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -1130,12 +1130,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>-0.2</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>-0.2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1164,12 +1164,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1232,12 +1232,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>612403962</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>543799637</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>517563605</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1266,12 +1266,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>135748704</t>
+          <t>145688038</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>133285276</t>
+          <t>136140916</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1402,12 +1402,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>62624463</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>19230477</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>11586845</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1436,12 +1436,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>30834941</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>30017392</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>26726328</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1470,12 +1470,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>89620561</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>86718215</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>93453412</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1504,12 +1504,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>54966313</t>
+          <t>58489599</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>56081656</t>
+          <t>53335005</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1538,12 +1538,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>145674478</t>
+          <t>151267892</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>134174839</t>
+          <t>146104227</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1572,12 +1572,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -1606,12 +1606,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>32823</t>
+          <t>32970</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>32728</t>
+          <t>32814</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -1640,12 +1640,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3175</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>3065</t>
+          <t>3114</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -1674,12 +1674,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>54.7</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>54.4</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>54.2</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -1708,12 +1708,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>17.1</t>
+          <t>16.6</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>16.8</t>
+          <t>16.9</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -1742,12 +1742,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>702</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>718</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>628</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1836,12 +1836,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1446</t>
+          <t>731</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1358</t>
+          <t>756</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Dec/23</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1972,12 +1972,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>49.9</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>49.7</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>49.6</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2006,12 +2006,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>47.09</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>48.58</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>49.38</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2040,12 +2040,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>2.88</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>2.97</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2074,12 +2074,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>2657</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>2599</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>2526</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2108,12 +2108,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>2095</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>2063</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>2007</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2142,12 +2142,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>47.13</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>47.75</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>49.1</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -2159,7 +2159,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2176,12 +2176,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>216</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>206</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2210,12 +2210,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>3731</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>3707</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>3660</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -2227,7 +2227,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2244,12 +2244,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>29.47</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>32.24</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>33.09</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2278,12 +2278,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>115</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>116</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2312,12 +2312,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>132</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>131</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2346,12 +2346,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>48.57</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>45.28</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>43.72</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2380,12 +2380,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>2.2</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>2.9</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2414,12 +2414,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>47.1</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>48.7</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>49.5</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2448,12 +2448,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>1.29</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>1.37</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -2465,7 +2465,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2482,12 +2482,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>2882</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>2814</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>2734</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2516,12 +2516,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>2736</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>2728</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>2743</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2550,12 +2550,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>1019</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>997</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>969</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2720,12 +2720,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>29457428454</t>
+          <t>30618728570</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>28320222269</t>
+          <t>30257176656</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -2737,7 +2737,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2754,12 +2754,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>92120</t>
+          <t>98180</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>93010</t>
+          <t>95010</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -2788,12 +2788,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>8162841517</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>7934382193</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>7695580995</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2839,7 +2839,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2907,7 +2907,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2924,12 +2924,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>8382218564</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>8099248551</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>8062207642</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -2941,7 +2941,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -3026,12 +3026,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>-5745</t>
+          <t>-7363</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>-5129</t>
+          <t>-5909</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -3060,12 +3060,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>1880</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>2988</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>4324</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -3077,7 +3077,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3128,12 +3128,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>23620</t>
+          <t>22291</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>21987</t>
+          <t>23500</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -3162,12 +3162,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>29364</t>
+          <t>29654</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>27116</t>
+          <t>29409</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -3196,12 +3196,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>506822</t>
+          <t>511975</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>499886</t>
+          <t>502328</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Mar/24</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -3230,12 +3230,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>86.72</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>88.26</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -3247,7 +3247,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3264,12 +3264,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>-3263</t>
+          <t>1682</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>-1098</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3298,12 +3298,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>417</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>441</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>304</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3400,12 +3400,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>6054431</t>
+          <t>2733663</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>6825403</t>
+          <t>5448459</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -3413,7 +3413,7 @@
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -3430,12 +3430,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>595</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>585</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>570</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3464,12 +3464,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>151386</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>129372</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>149099</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3503,7 +3503,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>103</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -3511,7 +3511,7 @@
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Jul/24</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -3664,12 +3664,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>-16.65</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>-186</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>-100</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -3698,12 +3698,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>67197347</t>
+          <t>72195697</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>66394220</t>
+          <t>66496450</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3732,12 +3732,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>769</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>832</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>691</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -3749,7 +3749,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3766,12 +3766,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>8795700</t>
+          <t>9004600</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>8649300</t>
+          <t>8796000</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -3783,7 +3783,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -3800,12 +3800,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>955</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>932</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>820</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3907,7 +3907,7 @@
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -3958,12 +3958,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>-167312</t>
+          <t>-62220</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>-201167</t>
+          <t>-167405</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
@@ -3975,7 +3975,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -3992,12 +3992,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>98.8</t>
+          <t>100</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
@@ -4009,7 +4009,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -4026,12 +4026,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>48.3</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>45.8</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>44.3</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
@@ -4043,7 +4043,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -4060,12 +4060,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>-2.4</t>
+          <t>-3.1</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>-5.2</t>
+          <t>-2.3</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4094,12 +4094,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>-0.9</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>1.6</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>-1.6</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4128,12 +4128,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>-2.5</t>
+          <t>-3.3</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>-5.4</t>
+          <t>-2.4</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -4145,7 +4145,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4162,12 +4162,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>74.9</t>
+          <t>75.8</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>74.9</t>
+          <t>76.1</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
@@ -4179,7 +4179,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -4196,12 +4196,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
+          <t>-708725645</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
           <t>-543407995</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>-258198320</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4230,12 +4230,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>2531</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>2221</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>1867</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
@@ -4247,7 +4247,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4264,12 +4264,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>117377</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>121970</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>123445</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -4298,12 +4298,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>212451</t>
+          <t>188966</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>211389</t>
+          <t>209401</t>
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
@@ -4315,7 +4315,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -4332,12 +4332,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>121094</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
           <t>97274</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>85540</t>
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
@@ -4349,7 +4349,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -4366,12 +4366,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>99.12</t>
+          <t>99.77</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>98.91</t>
+          <t>99.44</t>
         </is>
       </c>
       <c r="E117" t="inlineStr"/>
@@ -4383,7 +4383,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -4400,12 +4400,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
+          <t>26631</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
           <t>31968</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>32519</t>
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4434,7 +4434,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>-5.3</t>
+          <t>-14.2</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -4451,7 +4451,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4468,7 +4468,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -4485,7 +4485,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4502,12 +4502,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>80.6</t>
+          <t>81.3</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>78.2</t>
+          <t>79.8</t>
         </is>
       </c>
       <c r="E121" t="inlineStr"/>
@@ -4519,7 +4519,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -4536,12 +4536,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="E122" t="inlineStr"/>
@@ -4553,7 +4553,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4570,12 +4570,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>15.9</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>13.7</t>
+          <t>16.4</t>
         </is>
       </c>
       <c r="E123" t="inlineStr"/>
@@ -4587,7 +4587,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4604,12 +4604,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>408431077</t>
+          <t>449787450</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>393041545</t>
+          <t>407888587</t>
         </is>
       </c>
       <c r="E124" t="inlineStr"/>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4638,12 +4638,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>3307142640</t>
+          <t>3462882049</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>3200729192</t>
+          <t>3379830342</t>
         </is>
       </c>
       <c r="E125" t="inlineStr"/>
@@ -4655,7 +4655,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4672,12 +4672,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
+          <t>11593730484</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
           <t>11290583120</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>10942264006</t>
         </is>
       </c>
       <c r="E126" t="inlineStr"/>
@@ -4689,7 +4689,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4706,12 +4706,12 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>97.1</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
           <t>98</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>95</t>
         </is>
       </c>
       <c r="E127" t="inlineStr"/>
@@ -4723,7 +4723,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4753,7 +4753,7 @@
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -4770,12 +4770,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
+          <t>9.7</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
           <t>10.5</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>11</t>
         </is>
       </c>
       <c r="E129" t="inlineStr"/>
@@ -4787,7 +4787,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Mar/24</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -4804,12 +4804,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
           <t>148</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>146</t>
         </is>
       </c>
       <c r="E130" t="inlineStr"/>
@@ -4821,7 +4821,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4872,12 +4872,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
+          <t>165134</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
           <t>137210</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>176976</t>
         </is>
       </c>
       <c r="E132" t="inlineStr"/>
@@ -4889,7 +4889,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4906,12 +4906,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
+          <t>103740</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
           <t>107459</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>96061</t>
         </is>
       </c>
       <c r="E133" t="inlineStr"/>
@@ -4923,7 +4923,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -4974,12 +4974,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>6214</t>
+          <t>7907</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>8530</t>
+          <t>8072</t>
         </is>
       </c>
       <c r="E135" t="inlineStr"/>
@@ -4991,7 +4991,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -5008,12 +5008,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
+          <t>49274</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
           <t>57679</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>44858</t>
         </is>
       </c>
       <c r="E136" t="inlineStr"/>
@@ -5025,7 +5025,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -5042,12 +5042,12 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>183</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>208</t>
         </is>
       </c>
       <c r="E137" t="inlineStr"/>
@@ -5055,7 +5055,7 @@
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Mar/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -5072,12 +5072,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>46.38</t>
+          <t>33.28</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>55.28</t>
+          <t>49.68</t>
         </is>
       </c>
       <c r="E138" t="inlineStr"/>
@@ -5089,7 +5089,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -5106,12 +5106,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
           <t>3.02</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>3.01</t>
         </is>
       </c>
       <c r="E139" t="inlineStr"/>
@@ -5127,7 +5127,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Dec/21</t>
+          <t>Dec/22</t>
         </is>
       </c>
     </row>
@@ -5144,12 +5144,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
+          <t>18.3</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
           <t>18.38</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>18.4</t>
         </is>
       </c>
       <c r="E140" t="inlineStr"/>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Dec/21</t>
+          <t>Dec/22</t>
         </is>
       </c>
     </row>
@@ -5216,12 +5216,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
           <t>2.76</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>2.73</t>
         </is>
       </c>
       <c r="E142" t="inlineStr"/>
@@ -5237,7 +5237,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Dec/21</t>
+          <t>Dec/22</t>
         </is>
       </c>
     </row>
